--- a/Story.xlsx
+++ b/Story.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2025_VN_Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CAAC86-8741-4F86-9497-4097EDF0B4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A42CA0B-128D-4ED6-B521-4F21FB7323F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="735" windowWidth="17730" windowHeight="14145" xr2:uid="{E6B64182-1E12-49CA-8C97-BFBA217A8E2F}"/>
+    <workbookView xWindow="10908" yWindow="3408" windowWidth="19356" windowHeight="13296" xr2:uid="{E6B64182-1E12-49CA-8C97-BFBA217A8E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="151">
   <si>
     <t>Index</t>
   </si>
   <si>
-    <t>Caption</t>
-  </si>
-  <si>
     <t>Plot_0</t>
   </si>
   <si>
@@ -287,16 +284,211 @@
     <t>Intro to a place</t>
   </si>
   <si>
-    <t>Character A show up</t>
-  </si>
-  <si>
     <t>Show the rice_cooker</t>
   </si>
   <si>
-    <t>Character A thanks for having a rice_cooker</t>
-  </si>
-  <si>
-    <t>Character A looks at the rice_cooker</t>
+    <t>A hand grabs the power cord and inserts it into the wall socket</t>
+  </si>
+  <si>
+    <t>Insert the power cord into wall socket</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Unknown_A, Unknown_B</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>C's Room</t>
+  </si>
+  <si>
+    <t>Character_C</t>
+  </si>
+  <si>
+    <t>Character_C shows up</t>
+  </si>
+  <si>
+    <t>Character_C thanks for having a rice_cooker</t>
+  </si>
+  <si>
+    <t>Character_C looks at the rice_cooker</t>
+  </si>
+  <si>
+    <t>Character_C press turn_on rice_cooker</t>
+  </si>
+  <si>
+    <t>Character_C waits for rice_cooker ready</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Show Character_C is eating from top angle</t>
+  </si>
+  <si>
+    <t>Detailed Caption</t>
+  </si>
+  <si>
+    <t>Unknown_D watches Character_C's happy singing</t>
+  </si>
+  <si>
+    <t>Character_C, Unknown_D</t>
+  </si>
+  <si>
+    <t>Character_C is eating and thinking</t>
+  </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>Close_shot</t>
+  </si>
+  <si>
+    <t>High_angle</t>
+  </si>
+  <si>
+    <t>Medium_shot</t>
+  </si>
+  <si>
+    <t>Long_shot</t>
+  </si>
+  <si>
+    <t>Full_shot</t>
+  </si>
+  <si>
+    <t>Walking down the stair</t>
+  </si>
+  <si>
+    <t>Focus on Character_C</t>
+  </si>
+  <si>
+    <t>Stair</t>
+  </si>
+  <si>
+    <t>Character_C, Character_E</t>
+  </si>
+  <si>
+    <t>Character_C watches Character_E reading a letter</t>
+  </si>
+  <si>
+    <t>Character_E tears the letter</t>
+  </si>
+  <si>
+    <t>Character_E</t>
+  </si>
+  <si>
+    <t>Character_C watches Character_E tearing a letter</t>
+  </si>
+  <si>
+    <t>Character_C watches Character_E Stomping on the letter fragments</t>
+  </si>
+  <si>
+    <t>Character_C watches Character_E spitting on the letter fragments</t>
+  </si>
+  <si>
+    <t>Character_C is sweating and say hi to Character_E</t>
+  </si>
+  <si>
+    <t>Character_C watches Character E cleaning the letter fragments</t>
+  </si>
+  <si>
+    <t>Give Character_C a letter</t>
+  </si>
+  <si>
+    <t>Character_C hold the letter and watches Character_E walk away</t>
+  </si>
+  <si>
+    <t>Character_C read the letter</t>
+  </si>
+  <si>
+    <t>Character_C shocked by the letter</t>
+  </si>
+  <si>
+    <t>Character_E runs close and watches Character_C shocks</t>
+  </si>
+  <si>
+    <t>Character_E read the letter and Character_C says her thoughts</t>
+  </si>
+  <si>
+    <t>Character_E reads the letter and Character_C shouts her thoughts</t>
+  </si>
+  <si>
+    <t>Character_E watches Character_C tear the letter, cry, and complain about the content</t>
+  </si>
+  <si>
+    <t>Character_C walked away and Character_E comment_on the content</t>
+  </si>
+  <si>
+    <t>Character_C hestitate</t>
+  </si>
+  <si>
+    <t>Character_E watches Character_C hesitate and explain her situation</t>
+  </si>
+  <si>
+    <t>Character_C watches the letter fragment and think about her situation</t>
+  </si>
+  <si>
+    <t>Text intro to her conclusion</t>
+  </si>
+  <si>
+    <t>Text intro to someone talking</t>
+  </si>
+  <si>
+    <t>Character_C, Character_F</t>
+  </si>
+  <si>
+    <t>Character_C ask Character_F for advise</t>
+  </si>
+  <si>
+    <t>Character_C discuss with Character_F</t>
+  </si>
+  <si>
+    <t>Character_F</t>
+  </si>
+  <si>
+    <t>Character_F makes suggestions</t>
+  </si>
+  <si>
+    <t>Text shows a two-sided conversation</t>
+  </si>
+  <si>
+    <t>Text about a unusual suggestions</t>
+  </si>
+  <si>
+    <t>Character_F stops</t>
+  </si>
+  <si>
+    <t>Character_C shows bewilderment</t>
+  </si>
+  <si>
+    <t>Character_F explains the suggestion</t>
+  </si>
+  <si>
+    <t>Character_C is shocked</t>
+  </si>
+  <si>
+    <t>Character_C cries in protest and Character_F argues</t>
+  </si>
+  <si>
+    <t>Character_C aware of something</t>
+  </si>
+  <si>
+    <t>Character_F sighs and Character_C hesitate</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Medium_long_shot</t>
+  </si>
+  <si>
+    <t>Second_shot</t>
   </si>
 </sst>
 </file>
@@ -674,394 +866,835 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1D272C-E9C7-4EF2-AC88-73EF4498B09A}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.88671875" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
         <v>62</v>
       </c>
-      <c r="D30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F44" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="G44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="G49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="G53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="D53" t="s">
+      <c r="C54" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" t="s">
-        <v>80</v>
+      <c r="G56" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
